--- a/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
@@ -1219,10 +1219,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
@@ -1286,7 +1290,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1363,7 +1367,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1445,21 +1449,9 @@
       <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>

--- a/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
@@ -1158,7 +1158,11 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Until 11:30</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>

--- a/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
@@ -1430,7 +1430,7 @@
       <c r="S19" t="inlineStr">
         <is>
           <t>Driver,
-Optima</t>
+Red Van</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -3591,7 +3591,11 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>4:30 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
@@ -3632,7 +3636,11 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
@@ -3671,7 +3679,11 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>MODAS-SCAN</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
@@ -3706,7 +3718,11 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>DHILLON'S BP, MARKESAN</t>
+        </is>
+      </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
@@ -3745,7 +3761,11 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>N1894 WI-44 (HWY 44 &amp; 73)</t>
+        </is>
+      </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
@@ -3784,7 +3804,11 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/uRQ5w6AXAun5KEMW7</t>
+        </is>
+      </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
@@ -3862,9 +3886,21 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
@@ -3901,9 +3937,21 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Optima</t>
+        </is>
+      </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
@@ -3940,9 +3988,21 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>

--- a/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y96"/>
+  <dimension ref="A1:Y97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1664,15 +1664,10 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>@ Store,
-After Aurora</t>
-        </is>
-      </c>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
@@ -1721,9 +1716,22 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>@ Store,
+After Aurora</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
@@ -1840,11 +1848,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
@@ -1913,7 +1917,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1986,7 +1990,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -2053,7 +2057,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1115 UNION GROVE</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2120,7 +2124,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4310 67TH DRIVE</t>
+          <t>AURORA OUTPATIENT RX #1115 UNION GROVE</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2180,7 +2184,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/T7d8P5BJ5vQyPjos7</t>
+          <t>4310 67TH DRIVE</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2227,7 +2231,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>WE DEFINITELY NEED THE 4208 SCANNERS DUE TO THE LIGHTING IN THIS STORE - Also suggest scanner hoods</t>
+          <t>https://goo.gl/maps/T7d8P5BJ5vQyPjos7</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2276,7 +2280,11 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>WE DEFINITELY NEED THE 4208 SCANNERS DUE TO THE LIGHTING IN THIS STORE - Also suggest scanner hoods</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -2326,22 +2334,9 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe, Equip</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
@@ -2392,15 +2387,20 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe, Equip</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
@@ -2451,12 +2451,12 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2506,12 +2506,12 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2555,8 +2555,16 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
@@ -2655,11 +2663,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
@@ -2704,7 +2708,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2743,7 +2747,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2782,7 +2786,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION 51 LLC, JANESVILLE</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2821,7 +2825,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1620 W US HWY 14</t>
+          <t>DHILLON'S STATION 51 LLC, JANESVILLE</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2872,7 +2876,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AMes3hiS3DN1CYZx6</t>
+          <t>1620 W US HWY 14</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2919,7 +2923,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>SET UP BY THE GAME ROOM</t>
+          <t>https://goo.gl/maps/AMes3hiS3DN1CYZx6</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2960,7 +2964,11 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>SET UP BY THE GAME ROOM</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -3003,22 +3011,9 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
@@ -3061,15 +3056,20 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
@@ -3116,19 +3116,15 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
@@ -3163,12 +3159,12 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3204,9 +3200,21 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
@@ -3732,14 +3740,10 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>Ace Side</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
     </row>
@@ -3775,12 +3779,12 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Ace Side</t>
         </is>
       </c>
       <c r="X65" t="inlineStr"/>
@@ -3818,7 +3822,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -3857,13 +3861,12 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>@ Store,
-Ace Side</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X67" t="inlineStr"/>
@@ -3909,12 +3912,13 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Ace Side</t>
         </is>
       </c>
       <c r="X68" t="inlineStr"/>
@@ -3960,7 +3964,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
@@ -4011,13 +4015,12 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>@ Store,
-Ace Side</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X70" t="inlineStr"/>
@@ -4051,7 +4054,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
@@ -4091,12 +4094,13 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Ace Side</t>
         </is>
       </c>
       <c r="X72" t="inlineStr"/>
@@ -4130,13 +4134,12 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>@ Store,
-Ace Side</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X73" t="inlineStr"/>
@@ -4170,13 +4173,13 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
         <is>
           <t>@ Store,
-Ace Supv</t>
+Ace Side</t>
         </is>
       </c>
       <c r="X74" t="inlineStr"/>
@@ -4210,12 +4213,13 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Ace Supv</t>
         </is>
       </c>
       <c r="X75" t="inlineStr"/>
@@ -4242,9 +4246,21 @@
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
     </row>
@@ -4297,11 +4313,7 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
@@ -4330,7 +4342,7 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W79" t="inlineStr"/>
@@ -4361,7 +4373,7 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr">
         <is>
-          <t>FESTIVAL #2693, STEVENS POINT - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W80" t="inlineStr"/>
@@ -4392,7 +4404,7 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr">
         <is>
-          <t>1600 ACADEMY DR</t>
+          <t>FESTIVAL #2693, STEVENS POINT - LIFO</t>
         </is>
       </c>
       <c r="W81" t="inlineStr"/>
@@ -4423,7 +4435,7 @@
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9atNgUjfZf2FLKDK9</t>
+          <t>1600 ACADEMY DR</t>
         </is>
       </c>
       <c r="W82" t="inlineStr"/>
@@ -4454,7 +4466,7 @@
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr">
         <is>
-          <t>*No meet for Trevor here</t>
+          <t>https://goo.gl/maps/9atNgUjfZf2FLKDK9</t>
         </is>
       </c>
       <c r="W83" t="inlineStr"/>
@@ -4483,7 +4495,11 @@
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>*No meet for Trevor here</t>
+        </is>
+      </c>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
@@ -4509,21 +4525,9 @@
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
     </row>
@@ -4550,17 +4554,17 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X86" t="inlineStr"/>
@@ -4589,12 +4593,12 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Ariel</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
@@ -4628,12 +4632,12 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Ariel</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
@@ -4667,12 +4671,12 @@
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
@@ -4706,12 +4710,12 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
@@ -4745,12 +4749,12 @@
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
@@ -4784,12 +4788,12 @@
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
@@ -4823,12 +4827,12 @@
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
@@ -4862,12 +4866,12 @@
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W94" t="inlineStr">
@@ -4901,12 +4905,12 @@
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W95" t="inlineStr">
@@ -4940,12 +4944,12 @@
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
@@ -4955,6 +4959,45 @@
       </c>
       <c r="X96" t="inlineStr"/>
       <c r="Y96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
@@ -682,7 +682,11 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Sante Fe oil change</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>

--- a/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
@@ -3605,7 +3605,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>4:30 AM OFFICE LEAVE TIME</t>
+          <t>?? AM MEET</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3650,7 +3650,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3693,7 +3693,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -3732,7 +3732,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, MARKESAN</t>
+          <t>CONDON OIL #175, RANDOLPH</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>N1894 WI-44 (HWY 44 &amp; 73)</t>
+          <t>154 E KIENOW DR</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -3814,7 +3814,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/uRQ5w6AXAun5KEMW7</t>
+          <t>https://goo.gl/maps/gLRK63LNv182</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -3855,7 +3855,11 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TO FOLLOW </t>
+        </is>
+      </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
@@ -3893,21 +3897,13 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
@@ -3945,21 +3941,13 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>Optima</t>
-        </is>
-      </c>
+          <t>CONDON OIL #190, WAUPUN</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
@@ -3996,21 +3984,13 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>612 E MAIN ST</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
@@ -4048,7 +4028,11 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/JDEB8kGCMzC2</t>
+        </is>
+      </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
@@ -4127,7 +4111,11 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
@@ -4166,7 +4154,11 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>

--- a/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
@@ -1428,13 +1428,14 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Red Van,
+Rx</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -1500,16 +1501,10 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe,
-Rx</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1574,7 +1569,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1637,7 +1632,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1704,7 +1699,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1762,11 +1757,7 @@
           <t>8)</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
@@ -3605,7 +3596,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>?? AM MEET</t>
+          <t>5:30 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -4116,8 +4107,16 @@
           <t>1)</t>
         </is>
       </c>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
@@ -4159,8 +4158,17 @@
           <t>2)</t>
         </is>
       </c>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
@@ -4278,7 +4286,11 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>4:15 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
@@ -4305,7 +4317,11 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
@@ -4332,7 +4348,11 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>MODAS-SCAN</t>
+        </is>
+      </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
@@ -4363,7 +4383,11 @@
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>DHILLON'S BP, MARKESAN</t>
+        </is>
+      </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
@@ -4394,7 +4418,11 @@
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>N1894 WI-44 (HWY 44 &amp; 73)</t>
+        </is>
+      </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
@@ -4425,7 +4453,11 @@
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/uRQ5w6AXAun5KEMW7</t>
+        </is>
+      </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
@@ -4486,9 +4518,22 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>@ Store,
+Equip</t>
+        </is>
+      </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr">
@@ -4517,9 +4562,21 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
@@ -4544,9 +4601,21 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>

--- a/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
@@ -1757,8 +1757,16 @@
           <t>8)</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -1814,7 +1822,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1881,12 +1889,13 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -1957,13 +1966,12 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -2025,7 +2033,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2092,7 +2100,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">

--- a/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
@@ -5066,7 +5066,8 @@
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until noon</t>
         </is>
       </c>
       <c r="X97" t="inlineStr"/>

--- a/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
@@ -2857,7 +2857,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Wht Camry available, Equip</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t xml:space="preserve">Wht Camry </t>
         </is>
       </c>
       <c r="T85" t="inlineStr"/>

--- a/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
@@ -2611,7 +2611,7 @@
       <c r="W38" t="inlineStr">
         <is>
           <t>Driver,
-Optima</t>
+Blck Camry</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>

--- a/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
@@ -4364,11 +4364,7 @@
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
@@ -4401,7 +4397,7 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W80" t="inlineStr"/>
@@ -4436,7 +4432,7 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr">
         <is>
-          <t>FESTIVAL #2693, STEVENS POINT - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W81" t="inlineStr"/>
@@ -4471,7 +4467,7 @@
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr">
         <is>
-          <t>1600 ACADEMY DR</t>
+          <t>FESTIVAL #2693, STEVENS POINT - LIFO</t>
         </is>
       </c>
       <c r="W82" t="inlineStr"/>
@@ -4502,7 +4498,7 @@
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9atNgUjfZf2FLKDK9</t>
+          <t>1600 ACADEMY DR</t>
         </is>
       </c>
       <c r="W83" t="inlineStr"/>
@@ -4546,7 +4542,7 @@
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr">
         <is>
-          <t>*No meet for Trevor here</t>
+          <t>https://goo.gl/maps/9atNgUjfZf2FLKDK9</t>
         </is>
       </c>
       <c r="W84" t="inlineStr"/>

--- a/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y97"/>
+  <dimension ref="A1:Y86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3251,7 +3251,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>4:30 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
+          <t>4:15 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3294,7 +3294,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3372,7 +3372,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>SULLIVAN'S FOODS #295 +ACE, WINNEBAGO</t>
+          <t>FESTIVAL #2693, STEVENS POINT - LIFO</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3416,7 +3416,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>703 N ELIDA STREET</t>
+          <t>1600 ACADEMY DR</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3463,7 +3463,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/XJm8iLALryeWSpAZ6</t>
+          <t>https://goo.gl/maps/9atNgUjfZf2FLKDK9</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3537,13 +3537,12 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>@ Store, Equip,
-Groc Supv</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X59" t="inlineStr"/>
@@ -3577,10 +3576,15 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Driver, 
+Altima</t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -3616,14 +3620,12 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van,
-Ace Side</t>
+          <t>help drive if needed</t>
         </is>
       </c>
       <c r="X61" t="inlineStr"/>
@@ -3661,12 +3663,12 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>Ace Side</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X62" t="inlineStr"/>
@@ -3704,10 +3706,14 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr"/>
+          <t>Ariel</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
     </row>
@@ -3743,10 +3749,14 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr"/>
+          <t>Jacqui</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
     </row>
@@ -3782,12 +3792,12 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>Ace Side</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X65" t="inlineStr"/>
@@ -3825,7 +3835,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -3868,7 +3878,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
@@ -3911,13 +3921,12 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>@ Store,
-Ace Side</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X68" t="inlineStr"/>
@@ -3955,7 +3964,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
@@ -3998,7 +4007,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
@@ -4041,13 +4050,12 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>@ Store,
-Ace Side</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X71" t="inlineStr"/>
@@ -4081,13 +4089,13 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
         <is>
           <t>@ Store,
-Ace Side</t>
+Until noon</t>
         </is>
       </c>
       <c r="X72" t="inlineStr"/>
@@ -4126,21 +4134,9 @@
         </is>
       </c>
       <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
     </row>
@@ -4178,22 +4174,9 @@
         </is>
       </c>
       <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr">
-        <is>
-          <t>@ Store,
-Ace Side</t>
-        </is>
-      </c>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
     </row>
@@ -4218,22 +4201,9 @@
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>@ Store,
-Ace Supv</t>
-        </is>
-      </c>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>
@@ -4258,21 +4228,9 @@
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W76" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
     </row>
@@ -4395,11 +4353,7 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
@@ -4430,11 +4384,7 @@
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
@@ -4465,11 +4415,7 @@
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>FESTIVAL #2693, STEVENS POINT - LIFO</t>
-        </is>
-      </c>
+      <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
@@ -4496,11 +4442,7 @@
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>1600 ACADEMY DR</t>
-        </is>
-      </c>
+      <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
@@ -4540,11 +4482,7 @@
       </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/9atNgUjfZf2FLKDK9</t>
-        </is>
-      </c>
+      <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
@@ -4621,453 +4559,11 @@
         </is>
       </c>
       <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V86" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>Ariel</t>
-        </is>
-      </c>
-      <c r="W88" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t>Jacqui</t>
-        </is>
-      </c>
-      <c r="W89" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V90" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="W90" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr"/>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V91" t="inlineStr">
-        <is>
-          <t>Katie</t>
-        </is>
-      </c>
-      <c r="W91" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr"/>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="V92" t="inlineStr">
-        <is>
-          <t>Kirsten</t>
-        </is>
-      </c>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr"/>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="V93" t="inlineStr">
-        <is>
-          <t>Madison</t>
-        </is>
-      </c>
-      <c r="W93" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="V94" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="W94" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr"/>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="V95" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="W95" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr"/>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr"/>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="V97" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W97" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until noon</t>
-        </is>
-      </c>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
+++ b/09-07-25 to 09-13-25 Milwaukee Schedule.xlsx
@@ -4050,12 +4050,13 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until noon</t>
         </is>
       </c>
       <c r="X71" t="inlineStr"/>
@@ -4082,22 +4083,9 @@
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until noon</t>
-        </is>
-      </c>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
     </row>
